--- a/Тест-кейсы-регистрация.xlsx
+++ b/Тест-кейсы-регистрация.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -80,6 +80,9 @@
 Нажать "Вход в личный кабинет";
  Нажать на гиперссылку "Регистрация"</t>
     </r>
+  </si>
+  <si>
+    <t>готово</t>
   </si>
   <si>
     <t>Регистрация</t>
@@ -685,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -743,6 +746,9 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="14" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -753,7 +759,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -778,6 +784,9 @@
     </xf>
     <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1111,7 +1120,9 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1138,19 +1149,21 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="15"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1173,588 +1186,590 @@
     </row>
     <row r="10" ht="135.0" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>2.0</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
+      <c r="G10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
     </row>
     <row r="11" ht="135.0" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="26">
         <v>3.0</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="34"/>
     </row>
     <row r="12" ht="135.0" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="26">
         <v>4.0</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>16</v>
+      <c r="F12" s="26" t="s">
+        <v>23</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="33"/>
+      <c r="G12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="34"/>
     </row>
     <row r="13" ht="135.0" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="26">
         <v>5.0</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>16</v>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="33"/>
+      <c r="G13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="34"/>
     </row>
     <row r="14" ht="135.0" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="26">
         <v>6.0</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>16</v>
+      <c r="F14" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="33"/>
+      <c r="G14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="34"/>
     </row>
     <row r="15" ht="135.0" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="26">
         <v>7.0</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>16</v>
+      <c r="F15" s="26" t="s">
+        <v>32</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="33"/>
+      <c r="G15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="34"/>
     </row>
     <row r="16" ht="135.0" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="26">
         <v>8.0</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>16</v>
+      <c r="F16" s="26" t="s">
+        <v>35</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="33"/>
+      <c r="G16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="34"/>
     </row>
     <row r="17" ht="135.0" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="26">
         <v>9.0</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>16</v>
+      <c r="F17" s="26" t="s">
+        <v>38</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="33"/>
+      <c r="G17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="34"/>
     </row>
     <row r="18" ht="135.0" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="18">
         <v>11.0</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>16</v>
+      <c r="F18" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
+      <c r="G18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
     </row>
     <row r="19" ht="135.0" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="18">
         <v>13.0</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
     </row>
     <row r="20" ht="135.0" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
     </row>
     <row r="26" ht="124.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
     </row>
     <row r="27" ht="120.0" customHeight="1">
       <c r="A27" s="10"/>
@@ -1764,26 +1779,26 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
     </row>
     <row r="28" ht="120.0" customHeight="1">
       <c r="A28" s="10"/>
@@ -1817,8 +1832,8 @@
     <row r="29" ht="120.0" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="45"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1846,8 +1861,8 @@
     <row r="30" ht="120.0" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -1875,8 +1890,8 @@
     <row r="31" ht="120.0" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -1904,7 +1919,7 @@
     <row r="32" ht="105.0" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -1962,7 +1977,7 @@
     <row r="34" ht="135.0" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -2049,31 +2064,31 @@
     <row r="37" ht="105.0" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="37"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
     </row>
     <row r="38" ht="105.0" customHeight="1">
       <c r="A38" s="10"/>
@@ -2083,26 +2098,26 @@
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
     </row>
     <row r="39" ht="105.0" customHeight="1">
       <c r="A39" s="10"/>
@@ -2112,34 +2127,34 @@
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
     </row>
     <row r="40" ht="99.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="49"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="18"/>
       <c r="H40" s="15"/>
       <c r="I40" s="4"/>
@@ -2168,7 +2183,7 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="49"/>
+      <c r="F41" s="51"/>
       <c r="G41" s="18"/>
       <c r="H41" s="15"/>
       <c r="I41" s="4"/>
@@ -2197,7 +2212,7 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="49"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="18"/>
       <c r="H42" s="15"/>
       <c r="I42" s="4"/>
@@ -2226,7 +2241,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="49"/>
+      <c r="F43" s="51"/>
       <c r="G43" s="18"/>
       <c r="H43" s="15"/>
       <c r="I43" s="4"/>
@@ -2252,7 +2267,7 @@
     <row r="44" ht="104.25" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="50"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -2310,7 +2325,7 @@
     <row r="46" ht="99.75" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="51"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -2339,8 +2354,8 @@
     <row r="47" ht="99.75" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -2368,7 +2383,7 @@
     <row r="48" ht="99.75" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="37"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -2545,7 +2560,7 @@
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="53"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="18"/>
       <c r="H54" s="15"/>
       <c r="I54" s="4"/>
@@ -2574,7 +2589,7 @@
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="53"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="18"/>
       <c r="H55" s="15"/>
       <c r="I55" s="4"/>
@@ -2603,7 +2618,7 @@
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="53"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="18"/>
       <c r="H56" s="15"/>
       <c r="I56" s="4"/>
@@ -2691,7 +2706,7 @@
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="54"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="15"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2720,7 +2735,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="55"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -2745,7 +2760,7 @@
     <row r="61" ht="99.75" customHeight="1">
       <c r="A61" s="10"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="37"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -2832,9 +2847,9 @@
     <row r="64" ht="99.75" customHeight="1">
       <c r="A64" s="10"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="37"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="58"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="15"/>
@@ -2863,7 +2878,7 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="56"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="15"/>
@@ -2890,9 +2905,9 @@
     <row r="66" ht="99.75" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="37"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="18"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="58"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="15"/>
@@ -2919,9 +2934,9 @@
     <row r="67" ht="99.75" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="56"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="15"/>
@@ -2948,9 +2963,9 @@
     <row r="68" ht="99.75" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="37"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="18"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="15"/>
@@ -2977,9 +2992,9 @@
     <row r="69" ht="99.75" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="37"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="58"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="15"/>
@@ -3006,9 +3021,9 @@
     <row r="70" ht="99.75" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="37"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="56"/>
+      <c r="E70" s="58"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="15"/>
@@ -3035,9 +3050,9 @@
     <row r="71" ht="99.75" customHeight="1">
       <c r="A71" s="10"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="37"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="56"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="15"/>
@@ -3064,9 +3079,9 @@
     <row r="72" ht="99.75" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="18"/>
-      <c r="C72" s="37"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="56"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="15"/>
@@ -3093,9 +3108,9 @@
     <row r="73" ht="99.75" customHeight="1">
       <c r="A73" s="10"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="37"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="58"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="15"/>
@@ -3122,9 +3137,9 @@
     <row r="74" ht="99.75" customHeight="1">
       <c r="A74" s="10"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="37"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="56"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="15"/>
@@ -3151,9 +3166,9 @@
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="10"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="37"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="18"/>
-      <c r="E75" s="56"/>
+      <c r="E75" s="58"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="15"/>
@@ -3180,9 +3195,9 @@
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="10"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="37"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="56"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="15"/>
@@ -3209,9 +3224,9 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="10"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="37"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="18"/>
-      <c r="E77" s="56"/>
+      <c r="E77" s="58"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="15"/>
@@ -3238,9 +3253,9 @@
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="10"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="37"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="18"/>
-      <c r="E78" s="56"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="15"/>
@@ -3267,9 +3282,9 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="10"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="37"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="18"/>
-      <c r="E79" s="56"/>
+      <c r="E79" s="58"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="15"/>
@@ -3296,9 +3311,9 @@
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="10"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="37"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="18"/>
-      <c r="E80" s="56"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="15"/>
@@ -3325,9 +3340,9 @@
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="10"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="37"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="56"/>
+      <c r="E81" s="58"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="15"/>
@@ -3354,9 +3369,9 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="10"/>
       <c r="B82" s="18"/>
-      <c r="C82" s="37"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="56"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="15"/>
@@ -3383,7 +3398,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="10"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="37"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
@@ -3412,9 +3427,9 @@
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="10"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="37"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="18"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="58"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="15"/>
@@ -3441,9 +3456,9 @@
     <row r="85" ht="225.0" customHeight="1">
       <c r="A85" s="10"/>
       <c r="B85" s="18"/>
-      <c r="C85" s="37"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="18"/>
-      <c r="E85" s="56"/>
+      <c r="E85" s="58"/>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="15"/>
@@ -3468,13 +3483,13 @@
       <c r="AA85" s="5"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="57"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
       <c r="H86" s="3"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -3497,18 +3512,18 @@
       <c r="AA86" s="5"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="57"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60" t="s">
-        <v>41</v>
+      <c r="A87" s="59"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62" t="s">
+        <v>42</v>
       </c>
-      <c r="E87" s="59">
+      <c r="E87" s="61">
         <f>COUNTA(D10:D85)</f>
         <v>9</v>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
       <c r="H87" s="3"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -3531,13 +3546,13 @@
       <c r="AA87" s="5"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="57"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
       <c r="H88" s="3"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -3560,13 +3575,13 @@
       <c r="AA88" s="5"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="61"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -3618,7 +3633,7 @@
       <c r="AA90" s="5"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="63"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3647,7 +3662,7 @@
       <c r="AA91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="63"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3676,7 +3691,7 @@
       <c r="AA92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="63"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3705,7 +3720,7 @@
       <c r="AA93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="63"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3734,7 +3749,7 @@
       <c r="AA94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="63"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3763,7 +3778,7 @@
       <c r="AA95" s="5"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="63"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3792,7 +3807,7 @@
       <c r="AA96" s="5"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="63"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3821,7 +3836,7 @@
       <c r="AA97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="63"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3850,7 +3865,7 @@
       <c r="AA98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="63"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3879,7 +3894,7 @@
       <c r="AA99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="63"/>
+      <c r="A100" s="65"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3908,7 +3923,7 @@
       <c r="AA100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="63"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3937,7 +3952,7 @@
       <c r="AA101" s="5"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="63"/>
+      <c r="A102" s="65"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
